--- a/docs/shrcore/shr-core-RepeatFrequencyMax-model.xlsx
+++ b/docs/shrcore/shr-core-RepeatFrequencyMax-model.xlsx
@@ -143,11 +143,11 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {[]} {[]}
+    <t xml:space="preserve">positiveInt {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Integer representing if present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
+    <t>PositiveInt representing if present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -315,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="150.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
